--- a/trunk/docs/GOOLAB_ORGANISATION.xlsx
+++ b/trunk/docs/GOOLAB_ORGANISATION.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="27180" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19320" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INTRO" sheetId="2" r:id="rId1"/>
     <sheet name="CLASSES" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>FaceBookManager</t>
   </si>
@@ -52,6 +51,57 @@
   </si>
   <si>
     <t>déterminer le type de pinceau</t>
+  </si>
+  <si>
+    <t>CursorManager</t>
+  </si>
+  <si>
+    <t>BrushManager</t>
+  </si>
+  <si>
+    <t>gère le curseur</t>
+  </si>
+  <si>
+    <t>gère les pinceaux</t>
+  </si>
+  <si>
+    <t>EXEMPLES DE FONCTIONS</t>
+  </si>
+  <si>
+    <t>connectToFaceBook</t>
+  </si>
+  <si>
+    <t>disconnect</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>setSize</t>
+  </si>
+  <si>
+    <t>setBrush</t>
+  </si>
+  <si>
+    <t>radioButton</t>
+  </si>
+  <si>
+    <t>slider</t>
+  </si>
+  <si>
+    <t>FileManager</t>
+  </si>
+  <si>
+    <t>gère l'enregistrement / chargement</t>
+  </si>
+  <si>
+    <t>publie sur son mur, sur le mur d'un ami la photo</t>
+  </si>
+  <si>
+    <t>loadFromDisk</t>
+  </si>
+  <si>
+    <t>saveToDisk</t>
   </si>
 </sst>
 </file>
@@ -59,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +134,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,11 +195,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -113,15 +222,68 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,7 +374,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="B7B7B7"/>
+        <a:sysClr val="window" lastClr="A0A0A4"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -503,13 +665,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -517,90 +679,90 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>41162</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -612,71 +774,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>